--- a/Self-checking Test Status.xlsx
+++ b/Self-checking Test Status.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walee\Documents\University work\Merl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57BEF875-1C5F-4532-95D0-425EE6454BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Riscv-tests" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Riscv-tests" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
   <si>
     <t>Self-checking Test Status</t>
   </si>
@@ -20,9 +29,6 @@
     <t xml:space="preserve">Linker File </t>
   </si>
   <si>
-    <t>test.ld</t>
-  </si>
-  <si>
     <t>Test type</t>
   </si>
   <si>
@@ -38,21 +44,12 @@
     <t>Test Name</t>
   </si>
   <si>
-    <t>Signature file Name</t>
-  </si>
-  <si>
     <t>Status for ISS</t>
   </si>
   <si>
-    <t>Status for SoC</t>
-  </si>
-  <si>
     <t>qsort_main.c</t>
   </si>
   <si>
-    <t>qsort.dump</t>
-  </si>
-  <si>
     <t>Successful</t>
   </si>
   <si>
@@ -62,80 +59,115 @@
     <t>vvadd_main.c</t>
   </si>
   <si>
-    <t>vvadd.dump</t>
-  </si>
-  <si>
     <t>rsort.c</t>
   </si>
   <si>
-    <t>rsort.dump</t>
-  </si>
-  <si>
     <t>multiply_main.c</t>
   </si>
   <si>
-    <t>multiply.dump</t>
-  </si>
-  <si>
-    <t>dhrystone_main.c</t>
-  </si>
-  <si>
-    <t>dhrystone.dump</t>
-  </si>
-  <si>
     <t>towers_main.c</t>
   </si>
   <si>
-    <t>towers.dump</t>
-  </si>
-  <si>
     <t>mt-matmul.c</t>
   </si>
   <si>
-    <t>mt-matmul.dump</t>
-  </si>
-  <si>
     <t>median_main.c</t>
   </si>
   <si>
-    <t>median.dump</t>
+    <t>CSV file name (ISS/Core)</t>
+  </si>
+  <si>
+    <t>qsort_ISS.csv/qsort_Core.csv</t>
+  </si>
+  <si>
+    <t>towers_ISS.csv/towers_Core.csv</t>
+  </si>
+  <si>
+    <t>media_ISS.csv/median_Core.csv</t>
+  </si>
+  <si>
+    <t>Status for Ibex Core</t>
+  </si>
+  <si>
+    <t>link.lds</t>
+  </si>
+  <si>
+    <t>Status for Azadi</t>
+  </si>
+  <si>
+    <t>add_5_values.c</t>
+  </si>
+  <si>
+    <t>add5testISS.csv/add5test_Core.csv</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Mismatch[1]: None[56] : pc[001003be] jal	x1,1003d4: ra:001003c2 None[56] :pc[00000000001003c2] jal 0x16: ra:001003c6 [FAILED]: 14 matched, 1 mismatch</t>
+  </si>
+  <si>
+    <t>Post Compare Status</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>multiply_ISS.csv/???</t>
+  </si>
+  <si>
+    <t>vvadd_ISS.csv/???</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -149,62 +181,89 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -394,228 +453,326 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.14"/>
-    <col customWidth="1" min="2" max="2" width="16.14"/>
-    <col customWidth="1" min="3" max="3" width="18.86"/>
-    <col customWidth="1" min="4" max="4" width="15.57"/>
-    <col customWidth="1" min="5" max="5" width="14.43"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="83.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="C13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>14</v>
+      <c r="G13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C4"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Self-checking Test Status.xlsx
+++ b/Self-checking Test Status.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walee\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walee\Documents\University work\Merl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A16B7396-1BB1-4DA5-9FBB-383438157A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602581A9-CB25-4D94-ABAD-73E69B3B3146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="8964" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Riscv-tests" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="53">
   <si>
     <t>Self-checking Test Status</t>
   </si>
@@ -145,28 +145,46 @@
     <t>link.ld</t>
   </si>
   <si>
-    <t>qsort.log</t>
-  </si>
-  <si>
-    <t>towers.log</t>
-  </si>
-  <si>
-    <t>median.log</t>
-  </si>
-  <si>
-    <t>multiply.log</t>
-  </si>
-  <si>
     <t>Status for MERL swerv core</t>
   </si>
   <si>
-    <t>Test Passed on ISS But Core executes only some instrunctions before jumping to a 0000000 instruction</t>
-  </si>
-  <si>
-    <t>add5.log</t>
-  </si>
-  <si>
-    <t>vvadd.log</t>
+    <t>qsort.log / exec.log</t>
+  </si>
+  <si>
+    <t>towers.log / exec.log</t>
+  </si>
+  <si>
+    <t>median.log / exec.log</t>
+  </si>
+  <si>
+    <t>multiply.log / exec.log</t>
+  </si>
+  <si>
+    <t>vvadd.log / exec.log</t>
+  </si>
+  <si>
+    <t>add5.log / exec.log</t>
+  </si>
+  <si>
+    <t>qsort</t>
+  </si>
+  <si>
+    <t>tower</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>multiply</t>
+  </si>
+  <si>
+    <t>vvadd</t>
+  </si>
+  <si>
+    <t>add5</t>
+  </si>
+  <si>
+    <t>NIL</t>
   </si>
 </sst>
 </file>
@@ -271,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -288,9 +306,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -300,14 +315,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,17 +656,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -927,7 +942,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -943,232 +958,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>1</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>2</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>3</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>4</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
-        <v>1</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="15" t="s">
+      <c r="D9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>5</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
-        <v>2</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
-        <v>3</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
-        <v>4</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
-        <v>5</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>44</v>
+      <c r="D10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="A11" s="13">
         <v>6</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="24" t="s">
+      <c r="B11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>44</v>
+      <c r="D11" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
